--- a/teaching/traditional_assets/database/data/italy/italy_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.108</v>
+        <v>0.0287</v>
       </c>
       <c r="E2">
-        <v>0.08005</v>
+        <v>0.0356</v>
       </c>
       <c r="F2">
-        <v>0.167</v>
+        <v>-0.0779</v>
       </c>
       <c r="G2">
-        <v>0.1596439362783691</v>
+        <v>0.2438863402356063</v>
       </c>
       <c r="H2">
-        <v>0.1584880278839478</v>
+        <v>0.2431378499312259</v>
       </c>
       <c r="I2">
-        <v>0.1804806550104494</v>
+        <v>0.2260265534635124</v>
       </c>
       <c r="J2">
-        <v>0.1670681153433921</v>
+        <v>0.2001977854553924</v>
       </c>
       <c r="K2">
-        <v>750.242</v>
+        <v>889.4880000000001</v>
       </c>
       <c r="L2">
-        <v>0.2423731206392968</v>
+        <v>0.2513299901331516</v>
       </c>
       <c r="M2">
-        <v>586.8348</v>
+        <v>547.0394</v>
       </c>
       <c r="N2">
-        <v>0.05077580799091835</v>
+        <v>0.05142952500216233</v>
       </c>
       <c r="O2">
-        <v>0.7821940120654403</v>
+        <v>0.6150048117568758</v>
       </c>
       <c r="P2">
-        <v>470.9048</v>
+        <v>494.4774</v>
       </c>
       <c r="Q2">
-        <v>0.04074497917778871</v>
+        <v>0.04648794548674962</v>
       </c>
       <c r="R2">
-        <v>0.6276705383063066</v>
+        <v>0.5559123900491069</v>
       </c>
       <c r="S2">
-        <v>115.93</v>
+        <v>52.56200000000001</v>
       </c>
       <c r="T2">
-        <v>0.1975513381278683</v>
+        <v>0.09608448678468134</v>
       </c>
       <c r="U2">
-        <v>534.0840000000001</v>
+        <v>158.424</v>
       </c>
       <c r="V2">
-        <v>0.04621155159002437</v>
+        <v>0.01489412109793658</v>
       </c>
       <c r="W2">
-        <v>0.02230984220639326</v>
+        <v>-0.03031496062992126</v>
       </c>
       <c r="X2">
-        <v>0.06144631756784183</v>
+        <v>0.05157431614972867</v>
       </c>
       <c r="Y2">
-        <v>-0.03913647536144857</v>
+        <v>-0.08188927677964992</v>
       </c>
       <c r="Z2">
-        <v>0.585947449878169</v>
+        <v>0.7834711314618055</v>
       </c>
       <c r="AA2">
-        <v>-0.03759977881021011</v>
+        <v>-0.01592249368155012</v>
       </c>
       <c r="AB2">
-        <v>0.06017095937947921</v>
+        <v>0.04888491088170671</v>
       </c>
       <c r="AC2">
-        <v>-0.09758481304337781</v>
+        <v>-0.06428725274387279</v>
       </c>
       <c r="AD2">
-        <v>2013.122</v>
+        <v>3513.764</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2013.122</v>
+        <v>3513.764</v>
       </c>
       <c r="AG2">
-        <v>1479.038</v>
+        <v>3355.34</v>
       </c>
       <c r="AH2">
-        <v>0.148345542667134</v>
+        <v>0.2483147525264932</v>
       </c>
       <c r="AI2">
-        <v>0.2728827385627312</v>
+        <v>0.3825904221843309</v>
       </c>
       <c r="AJ2">
-        <v>0.1134544116753633</v>
+        <v>0.2398038310408361</v>
       </c>
       <c r="AK2">
-        <v>0.2161338376229221</v>
+        <v>0.371753332367205</v>
       </c>
       <c r="AL2">
-        <v>29.934</v>
+        <v>57.704</v>
       </c>
       <c r="AM2">
-        <v>14.254</v>
+        <v>52.811</v>
       </c>
       <c r="AN2">
-        <v>3.210239613199935</v>
+        <v>3.992233142078055</v>
       </c>
       <c r="AO2">
-        <v>18.66305872920425</v>
+        <v>13.86274781644253</v>
       </c>
       <c r="AP2">
-        <v>2.358558684981837</v>
+        <v>3.812236550587968</v>
       </c>
       <c r="AQ2">
-        <v>39.19320892381086</v>
+        <v>15.14714737459999</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.108</v>
+        <v>0.08460000000000001</v>
       </c>
       <c r="E3">
-        <v>0.0866</v>
+        <v>0.149</v>
       </c>
       <c r="F3">
-        <v>0.289</v>
+        <v>-0.0779</v>
       </c>
       <c r="G3">
-        <v>0.1649582220690843</v>
+        <v>0.3930528863264289</v>
       </c>
       <c r="H3">
-        <v>0.1649582220690843</v>
+        <v>0.3930528863264289</v>
       </c>
       <c r="I3">
-        <v>0.2887414936687053</v>
+        <v>0.4005979073243647</v>
       </c>
       <c r="J3">
-        <v>0.2645457779036406</v>
+        <v>0.3318168686145473</v>
       </c>
       <c r="K3">
-        <v>280</v>
+        <v>415.3</v>
       </c>
       <c r="L3">
-        <v>0.2411921784822121</v>
+        <v>0.2956082283436544</v>
       </c>
       <c r="M3">
-        <v>225.204</v>
+        <v>278.1</v>
       </c>
       <c r="N3">
-        <v>0.06694331321898873</v>
+        <v>0.09254575707154743</v>
       </c>
       <c r="O3">
-        <v>0.8042999999999999</v>
+        <v>0.6696364074163256</v>
       </c>
       <c r="P3">
-        <v>225.2</v>
+        <v>225.8</v>
       </c>
       <c r="Q3">
-        <v>0.06694212419369222</v>
+        <v>0.07514143094841931</v>
       </c>
       <c r="R3">
-        <v>0.8042857142857143</v>
+        <v>0.5437033469780881</v>
       </c>
       <c r="S3">
-        <v>0.003999999999990678</v>
+        <v>52.30000000000001</v>
       </c>
       <c r="T3">
-        <v>1.776167386010319e-05</v>
+        <v>0.188061848256023</v>
       </c>
       <c r="U3">
-        <v>0.036</v>
+        <v>0.032</v>
       </c>
       <c r="V3">
-        <v>1.070122766861865e-05</v>
+        <v>1.064891846921797e-05</v>
       </c>
       <c r="W3">
-        <v>0.4130402714264641</v>
+        <v>0.5801089537644922</v>
       </c>
       <c r="X3">
-        <v>0.06565959876214313</v>
+        <v>0.05761417708752511</v>
       </c>
       <c r="Y3">
-        <v>0.347380672664321</v>
+        <v>0.5224947766769671</v>
       </c>
       <c r="Z3">
-        <v>2.365427953168235</v>
+        <v>1.832006718270776</v>
       </c>
       <c r="AA3">
-        <v>0.625763977945907</v>
+        <v>0.6078907325374219</v>
       </c>
       <c r="AB3">
-        <v>0.06148516580013162</v>
+        <v>0.04995713171778183</v>
       </c>
       <c r="AC3">
-        <v>0.5642788121457754</v>
+        <v>0.5579336008196401</v>
       </c>
       <c r="AD3">
-        <v>653</v>
+        <v>1118</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>653</v>
+        <v>1118</v>
       </c>
       <c r="AG3">
-        <v>652.9640000000001</v>
+        <v>1117.968</v>
       </c>
       <c r="AH3">
-        <v>0.1625550770456299</v>
+        <v>0.2711617754062576</v>
       </c>
       <c r="AI3">
-        <v>0.4713099963911945</v>
+        <v>0.5596996245306634</v>
       </c>
       <c r="AJ3">
-        <v>0.1625475720576023</v>
+        <v>0.2711561186019392</v>
       </c>
       <c r="AK3">
-        <v>0.4712962588706744</v>
+        <v>0.559692570794626</v>
       </c>
       <c r="AL3">
-        <v>10.5</v>
+        <v>19.9</v>
       </c>
       <c r="AM3">
-        <v>10.5</v>
+        <v>19.9</v>
       </c>
       <c r="AN3">
-        <v>1.935962051586125</v>
+        <v>1.942658557775847</v>
       </c>
       <c r="AO3">
-        <v>31.92380952380952</v>
+        <v>28.28140703517588</v>
       </c>
       <c r="AP3">
-        <v>1.935855321672102</v>
+        <v>1.942602953953084</v>
       </c>
       <c r="AQ3">
-        <v>31.92380952380952</v>
+        <v>28.28140703517588</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>First Capital S.p.A. (BIT:FIC)</t>
+          <t>Anima Holding S.p.A. (BIT:ANIM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,121 +865,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.474</v>
+        <v>0.0334</v>
       </c>
       <c r="E4">
-        <v>0.588</v>
+        <v>0.0356</v>
       </c>
       <c r="G4">
-        <v>-0.1227513227513228</v>
+        <v>0.2661199827362969</v>
       </c>
       <c r="H4">
-        <v>-0.1227513227513228</v>
+        <v>0.2661199827362969</v>
       </c>
       <c r="I4">
-        <v>0.8095238095238096</v>
+        <v>0.2370306430729392</v>
       </c>
       <c r="J4">
-        <v>0.8095238095238096</v>
+        <v>0.1598105038843332</v>
       </c>
       <c r="K4">
-        <v>15.5</v>
+        <v>172.7</v>
       </c>
       <c r="L4">
-        <v>0.8201058201058201</v>
+        <v>0.1490720759602935</v>
       </c>
       <c r="M4">
-        <v>2.094</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.04427061310782241</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.1350967741935484</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>1.89</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.03995771670190275</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.1219354838709677</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>0.204</v>
-      </c>
-      <c r="T4">
-        <v>0.0974212034383954</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4.123468426013195e-06</v>
       </c>
       <c r="W4">
-        <v>0.3875</v>
+        <v>0.1281062235739188</v>
       </c>
       <c r="X4">
-        <v>0.06342742102316642</v>
+        <v>0.0578184384141367</v>
       </c>
       <c r="Y4">
-        <v>0.3240725789768336</v>
+        <v>0.07028778515978215</v>
       </c>
       <c r="Z4">
-        <v>0.4155672823218997</v>
+        <v>1.435932141205985</v>
       </c>
       <c r="AA4">
-        <v>0.3364116094986807</v>
+        <v>0.229477039029838</v>
       </c>
       <c r="AB4">
-        <v>0.06039168802887107</v>
+        <v>0.05137781357546368</v>
       </c>
       <c r="AC4">
-        <v>0.2760199214698096</v>
+        <v>0.1780992254543743</v>
       </c>
       <c r="AD4">
-        <v>5.75</v>
+        <v>643.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.75</v>
+        <v>643.7</v>
       </c>
       <c r="AG4">
-        <v>5.75</v>
+        <v>643.6930000000001</v>
       </c>
       <c r="AH4">
-        <v>0.1083883129123469</v>
+        <v>0.2749327296800922</v>
       </c>
       <c r="AI4">
-        <v>0.09688289806234204</v>
+        <v>0.30338879200641</v>
       </c>
       <c r="AJ4">
-        <v>0.1083883129123469</v>
+        <v>0.2749305618732897</v>
       </c>
       <c r="AK4">
-        <v>0.09688289806234204</v>
+        <v>0.3033864937104473</v>
       </c>
       <c r="AL4">
-        <v>0.297</v>
+        <v>16.8</v>
       </c>
       <c r="AM4">
-        <v>0.297</v>
+        <v>16.8</v>
       </c>
       <c r="AN4">
-        <v>0.3758169934640523</v>
+        <v>1.923214819241112</v>
       </c>
       <c r="AO4">
-        <v>51.51515151515152</v>
+        <v>16.34523809523809</v>
       </c>
       <c r="AP4">
-        <v>0.3758169934640523</v>
+        <v>1.923193904989543</v>
       </c>
       <c r="AQ4">
-        <v>51.51515151515152</v>
+        <v>16.34523809523809</v>
       </c>
     </row>
     <row r="5">
@@ -990,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A. (BIT:ANIM)</t>
+          <t>Gequity S.p.A. (BIT:GEQ)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -999,121 +996,109 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0718</v>
-      </c>
-      <c r="E5">
-        <v>-0.015</v>
+        <v>1.255</v>
       </c>
       <c r="G5">
-        <v>0.2527001862197393</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2527001862197393</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2046554934823091</v>
+        <v>0.02154929577464789</v>
       </c>
       <c r="J5">
-        <v>0.1451613952229424</v>
+        <v>0.01077464788732394</v>
       </c>
       <c r="K5">
-        <v>138.2</v>
+        <v>-0.485</v>
       </c>
       <c r="L5">
-        <v>0.1286778398510242</v>
+        <v>-0.03415492957746479</v>
       </c>
       <c r="M5">
-        <v>111.4</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.0585422250249619</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.8060781476121563</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>66.3</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.03484155762257606</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.4797395079594791</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>45.10000000000001</v>
-      </c>
-      <c r="T5">
-        <v>0.4048473967684022</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.007</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="V5">
-        <v>3.678595827421304e-06</v>
+        <v>0.04384615384615385</v>
       </c>
       <c r="W5">
-        <v>0.09868608968866037</v>
+        <v>-8.220338983050848</v>
       </c>
       <c r="X5">
-        <v>0.07042542255182237</v>
+        <v>0.05085442579705778</v>
       </c>
       <c r="Y5">
-        <v>0.028260667136838</v>
+        <v>-8.271193408847905</v>
       </c>
       <c r="Z5">
-        <v>1.384568379500653</v>
+        <v>10.96525096525096</v>
       </c>
       <c r="AA5">
-        <v>0.2009858777498832</v>
+        <v>0.1181467181467181</v>
       </c>
       <c r="AB5">
-        <v>0.06254885554777603</v>
+        <v>0.04888491088170671</v>
       </c>
       <c r="AC5">
-        <v>0.1384370222021072</v>
+        <v>0.06926180726501144</v>
       </c>
       <c r="AD5">
-        <v>664.1</v>
+        <v>2.12</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>664.1</v>
+        <v>2.12</v>
       </c>
       <c r="AG5">
-        <v>664.0930000000001</v>
+        <v>1.436</v>
       </c>
       <c r="AH5">
-        <v>0.2587066614725361</v>
+        <v>0.1196388261851016</v>
       </c>
       <c r="AI5">
-        <v>0.3300367756684227</v>
+        <v>0.9036658141517476</v>
       </c>
       <c r="AJ5">
-        <v>0.2587046400204441</v>
+        <v>0.08429208734444704</v>
       </c>
       <c r="AK5">
-        <v>0.3300344450060209</v>
+        <v>0.8640192539109507</v>
       </c>
       <c r="AL5">
-        <v>12.2</v>
+        <v>0.37</v>
       </c>
       <c r="AM5">
-        <v>12.2</v>
-      </c>
-      <c r="AN5">
-        <v>2.383704235463029</v>
+        <v>0.367</v>
       </c>
       <c r="AO5">
-        <v>18.01639344262295</v>
-      </c>
-      <c r="AP5">
-        <v>2.383679109834889</v>
+        <v>0.827027027027027</v>
       </c>
       <c r="AQ5">
-        <v>18.01639344262295</v>
+        <v>0.8337874659400545</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DeA Capital S.p.A. (BIT:DEA)</t>
+          <t>Ambromobiliare S.p.A. (BIT:AMB)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1133,118 +1118,103 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.208</v>
+        <v>-0.155</v>
       </c>
       <c r="G6">
-        <v>0.7323890339425588</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.7323759791122716</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2389033942558747</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1462298797807937</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.6</v>
+        <v>-0.215</v>
       </c>
       <c r="L6">
-        <v>0.1514360313315927</v>
+        <v>-0.1214689265536723</v>
       </c>
       <c r="M6">
-        <v>6.96</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.0163457022076092</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.96</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.0163457022076092</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>125</v>
+        <v>0.044</v>
       </c>
       <c r="V6">
-        <v>0.2935650540159699</v>
+        <v>0.005597964376590331</v>
       </c>
       <c r="W6">
-        <v>0.02154932193943897</v>
+        <v>-0.05955678670360111</v>
       </c>
       <c r="X6">
-        <v>0.0611032537037562</v>
+        <v>0.0485303666855985</v>
       </c>
       <c r="Y6">
-        <v>-0.03955393176431723</v>
+        <v>-0.1080871533891996</v>
       </c>
       <c r="Z6">
-        <v>0.3492422446337061</v>
+        <v>1.16600790513834</v>
       </c>
       <c r="AA6">
-        <v>0.05106965144716136</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05997302946139042</v>
+        <v>0.04796180643552438</v>
       </c>
       <c r="AC6">
-        <v>-0.008903378014229052</v>
+        <v>-0.04796180643552438</v>
       </c>
       <c r="AD6">
-        <v>19.6</v>
+        <v>0.43</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>19.6</v>
+        <v>0.43</v>
       </c>
       <c r="AG6">
-        <v>-105.4</v>
+        <v>0.386</v>
       </c>
       <c r="AH6">
-        <v>0.04400538841490795</v>
+        <v>0.05186972255729794</v>
       </c>
       <c r="AI6">
-        <v>0.03648548026805659</v>
+        <v>0.1102564102564102</v>
       </c>
       <c r="AJ6">
-        <v>-0.3289637952559301</v>
+        <v>0.04681057482415717</v>
       </c>
       <c r="AK6">
-        <v>-0.2557011159631247</v>
+        <v>0.100103734439834</v>
       </c>
       <c r="AL6">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.201</v>
-      </c>
-      <c r="AN6">
-        <v>0.9560975609756098</v>
-      </c>
-      <c r="AO6">
-        <v>45.86466165413534</v>
-      </c>
-      <c r="AP6">
-        <v>-5.141463414634146</v>
-      </c>
-      <c r="AQ6">
-        <v>-91.04477611940301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1264,13 +1234,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0542</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="E7">
-        <v>0.0735</v>
-      </c>
-      <c r="F7">
-        <v>0.045</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1285,28 +1252,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>262</v>
+        <v>319.3</v>
       </c>
       <c r="L7">
-        <v>0.4409289801413665</v>
+        <v>0.4353101567825494</v>
       </c>
       <c r="M7">
-        <v>157.76</v>
+        <v>249.767</v>
       </c>
       <c r="N7">
-        <v>0.04186281013665916</v>
+        <v>0.06515207637729549</v>
       </c>
       <c r="O7">
-        <v>0.6021374045801527</v>
+        <v>0.7822330097087378</v>
       </c>
       <c r="P7">
-        <v>157.76</v>
+        <v>249.767</v>
       </c>
       <c r="Q7">
-        <v>0.04186281013665916</v>
+        <v>0.06515207637729549</v>
       </c>
       <c r="R7">
-        <v>0.6021374045801527</v>
+        <v>0.7822330097087378</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1321,49 +1288,49 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.3330367357315368</v>
+        <v>0.3699884125144844</v>
       </c>
       <c r="X7">
-        <v>0.06178938143192746</v>
+        <v>0.05474035158706521</v>
       </c>
       <c r="Y7">
-        <v>0.2712473542996093</v>
+        <v>0.3152480609274192</v>
       </c>
       <c r="Z7">
-        <v>0.6454486204649142</v>
+        <v>0.6677287209831588</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06039443645548438</v>
+        <v>0.04932206004419198</v>
       </c>
       <c r="AC7">
-        <v>-0.06039443645548438</v>
+        <v>-0.04932206004419198</v>
       </c>
       <c r="AD7">
-        <v>257.5</v>
+        <v>1041.4</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>257.5</v>
+        <v>1041.4</v>
       </c>
       <c r="AG7">
-        <v>257.5</v>
+        <v>1041.4</v>
       </c>
       <c r="AH7">
-        <v>0.06395926477893692</v>
+        <v>0.2136205128205128</v>
       </c>
       <c r="AI7">
-        <v>0.2298081213743864</v>
+        <v>0.453729522481701</v>
       </c>
       <c r="AJ7">
-        <v>0.06395926477893692</v>
+        <v>0.2136205128205128</v>
       </c>
       <c r="AK7">
-        <v>0.2298081213743864</v>
+        <v>0.453729522481701</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1389,10 +1356,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.09300000000000001</v>
+        <v>0.00112</v>
       </c>
       <c r="E8">
-        <v>-0.00304</v>
+        <v>-0.329</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1407,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.41</v>
+        <v>1.22</v>
       </c>
       <c r="L8">
-        <v>0.07555865921787711</v>
+        <v>0.01812778603268945</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1434,55 +1401,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.616</v>
+        <v>0.922</v>
       </c>
       <c r="V8">
-        <v>0.005811320754716981</v>
+        <v>0.009978354978354979</v>
       </c>
       <c r="W8">
-        <v>0.02307036247334755</v>
+        <v>0.005134680134680135</v>
       </c>
       <c r="X8">
-        <v>0.067611612092093</v>
+        <v>0.05604132282396397</v>
       </c>
       <c r="Y8">
-        <v>-0.04454124961874545</v>
+        <v>-0.05090664268928383</v>
       </c>
       <c r="Z8">
-        <v>0.04551985453990616</v>
+        <v>0.2778878868959138</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06101862570893907</v>
+        <v>0.04962154864327718</v>
       </c>
       <c r="AC8">
-        <v>-0.06101862570893907</v>
+        <v>-0.04962154864327718</v>
       </c>
       <c r="AD8">
-        <v>27.3</v>
+        <v>29.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>27.3</v>
+        <v>29.3</v>
       </c>
       <c r="AG8">
-        <v>26.684</v>
+        <v>28.378</v>
       </c>
       <c r="AH8">
-        <v>0.204801200300075</v>
+        <v>0.2407559572719803</v>
       </c>
       <c r="AI8">
-        <v>0.08849270664505673</v>
+        <v>0.087856071964018</v>
       </c>
       <c r="AJ8">
-        <v>0.2011094027915951</v>
+        <v>0.234960009273212</v>
       </c>
       <c r="AK8">
-        <v>0.08666900520975432</v>
+        <v>0.08532735177913152</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1499,7 +1466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tamburi Investment Partners S.p.A. (BIT:TIP)</t>
+          <t>DeA Capital S.p.A. (BIT:DEA)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1508,121 +1475,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.152</v>
+        <v>-0.17</v>
       </c>
       <c r="E9">
-        <v>0.115</v>
+        <v>-0.419</v>
       </c>
       <c r="G9">
-        <v>-0.8206896551724138</v>
+        <v>0.2370990237099024</v>
       </c>
       <c r="H9">
-        <v>-0.8206896551724138</v>
+        <v>0.2370990237099024</v>
       </c>
       <c r="I9">
-        <v>-0.5062068965517241</v>
+        <v>-0.06596931659693166</v>
       </c>
       <c r="J9">
-        <v>-0.4838116371430373</v>
+        <v>-0.06596931659693166</v>
       </c>
       <c r="K9">
-        <v>50.8</v>
+        <v>5.12</v>
       </c>
       <c r="L9">
-        <v>3.503448275862069</v>
+        <v>0.07140864714086471</v>
       </c>
       <c r="M9">
-        <v>12.3728</v>
+        <v>0.227</v>
       </c>
       <c r="N9">
-        <v>0.009936395759717314</v>
+        <v>0.0006258615936035291</v>
       </c>
       <c r="O9">
-        <v>0.2435590551181102</v>
+        <v>0.0443359375</v>
       </c>
       <c r="P9">
-        <v>12.3728</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.009936395759717314</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.2435590551181102</v>
+        <v>-0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>2.29</v>
+        <v>138.5</v>
       </c>
       <c r="V9">
-        <v>0.001839061998072599</v>
+        <v>0.3818582850840915</v>
       </c>
       <c r="W9">
-        <v>0.06256928193127233</v>
+        <v>0.01042345276872964</v>
       </c>
       <c r="X9">
-        <v>0.0687261301751154</v>
+        <v>0.04825079688886458</v>
       </c>
       <c r="Y9">
-        <v>-0.006156848243843077</v>
+        <v>-0.03782734412013494</v>
       </c>
       <c r="Z9">
-        <v>0.01427544721530328</v>
+        <v>0.252820874471086</v>
       </c>
       <c r="AA9">
-        <v>-0.00690662748818489</v>
+        <v>-0.01667842031029619</v>
       </c>
       <c r="AB9">
-        <v>0.0611633921182974</v>
+        <v>0.04743904214009819</v>
       </c>
       <c r="AC9">
-        <v>-0.06807001960648229</v>
+        <v>-0.06411746245039437</v>
       </c>
       <c r="AD9">
-        <v>365.8</v>
+        <v>16.3</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>365.8</v>
+        <v>16.3</v>
       </c>
       <c r="AG9">
-        <v>363.51</v>
+        <v>-122.2</v>
       </c>
       <c r="AH9">
-        <v>0.2270639354438237</v>
+        <v>0.04300791556728233</v>
       </c>
       <c r="AI9">
-        <v>0.2849131552301581</v>
+        <v>0.03040477522850215</v>
       </c>
       <c r="AJ9">
-        <v>0.2259636603241106</v>
+        <v>-0.5081081081081081</v>
       </c>
       <c r="AK9">
-        <v>0.2836354273140815</v>
+        <v>-0.3073440643863179</v>
       </c>
       <c r="AL9">
-        <v>5.6</v>
+        <v>3.07</v>
       </c>
       <c r="AM9">
-        <v>-2.91</v>
+        <v>3.034</v>
       </c>
       <c r="AN9">
-        <v>-49.83651226158038</v>
+        <v>51.41955835962145</v>
       </c>
       <c r="AO9">
-        <v>-1.310714285714286</v>
+        <v>-1.54071661237785</v>
       </c>
       <c r="AP9">
-        <v>-49.52452316076294</v>
+        <v>-385.4889589905363</v>
       </c>
       <c r="AQ9">
-        <v>2.52233676975945</v>
+        <v>-1.558998022412657</v>
       </c>
     </row>
     <row r="10">
@@ -1633,7 +1600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Capital For Progress Single Investment S.p.A. (BIT:CFP)</t>
+          <t>Tamburi Investment Partners S.p.A. (BIT:TIP)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1641,98 +1608,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0225</v>
+      </c>
+      <c r="G10">
+        <v>-3.381555153707052</v>
+      </c>
+      <c r="H10">
+        <v>-3.381555153707052</v>
+      </c>
+      <c r="I10">
+        <v>-3.019891500904159</v>
+      </c>
+      <c r="J10">
+        <v>-3.019891500904159</v>
+      </c>
       <c r="K10">
-        <v>-0.6899999999999999</v>
+        <v>-2.48</v>
+      </c>
+      <c r="L10">
+        <v>-0.4484629294755877</v>
       </c>
       <c r="M10">
-        <v>70.5</v>
+        <v>17.8504</v>
       </c>
       <c r="N10">
-        <v>15.12875536480687</v>
+        <v>0.01258044964409049</v>
       </c>
       <c r="O10">
-        <v>-102.1739130434783</v>
+        <v>-7.197741935483871</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>17.8504</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.01258044964409049</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-7.197741935483871</v>
       </c>
       <c r="S10">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>4.57</v>
+        <v>4.38</v>
       </c>
       <c r="V10">
-        <v>0.98068669527897</v>
+        <v>0.003086898301501162</v>
       </c>
       <c r="W10">
-        <v>-0.008903225806451613</v>
+        <v>-0.002943620178041543</v>
       </c>
       <c r="X10">
-        <v>0.06043962171128739</v>
+        <v>0.05944805831747292</v>
       </c>
       <c r="Y10">
-        <v>-0.069342847517739</v>
+        <v>-0.06239167849551446</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.004626414904920063</v>
       </c>
       <c r="AA10">
-        <v>-0.009018270782364271</v>
+        <v>-0.01397127105102442</v>
       </c>
       <c r="AB10">
-        <v>0.05984215718493402</v>
+        <v>0.05031598169284837</v>
       </c>
       <c r="AC10">
-        <v>-0.06886042796729828</v>
+        <v>-0.06428725274387279</v>
       </c>
       <c r="AD10">
-        <v>0.114</v>
+        <v>618.8</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.114</v>
+        <v>618.8</v>
       </c>
       <c r="AG10">
-        <v>-4.456</v>
+        <v>614.42</v>
       </c>
       <c r="AH10">
-        <v>0.02387934645999162</v>
+        <v>0.3036757128134661</v>
       </c>
       <c r="AI10">
-        <v>0.02237926972909305</v>
+        <v>0.357977554090015</v>
       </c>
       <c r="AJ10">
-        <v>-21.84313725490199</v>
+        <v>0.302175751972144</v>
       </c>
       <c r="AK10">
-        <v>-8.503816793893129</v>
+        <v>0.356346637900036</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AM10">
-        <v>-0.629</v>
+        <v>10.73</v>
       </c>
       <c r="AN10">
-        <v>-0.3423423423423423</v>
+        <v>-37.27710843373493</v>
+      </c>
+      <c r="AO10">
+        <v>-1.07741935483871</v>
       </c>
       <c r="AP10">
-        <v>13.38138138138138</v>
+        <v>-37.01325301204819</v>
       </c>
       <c r="AQ10">
-        <v>1.101748807631161</v>
+        <v>-1.556383970177073</v>
       </c>
     </row>
     <row r="11">
@@ -1743,7 +1731,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Spactiv S.p.A. (BIT:SPTV)</t>
+          <t>First Capital S.p.A. (BIT:FIC)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1751,95 +1739,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D11">
+        <v>-0.366</v>
+      </c>
+      <c r="G11">
+        <v>18.13471502590674</v>
+      </c>
+      <c r="H11">
+        <v>18.13471502590674</v>
+      </c>
+      <c r="I11">
+        <v>-1.224093264248705</v>
+      </c>
+      <c r="J11">
+        <v>-1.224093264248705</v>
+      </c>
       <c r="K11">
-        <v>-0.8090000000000001</v>
+        <v>-2.09</v>
+      </c>
+      <c r="L11">
+        <v>-2.707253886010363</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.01512125534950071</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0.5071770334928231</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.01512125534950071</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0.5071770334928231</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>0.388</v>
+        <v>0.001</v>
       </c>
       <c r="V11">
-        <v>0.003923154701718908</v>
+        <v>1.426533523537803e-05</v>
       </c>
       <c r="W11">
-        <v>-0.007539608574091333</v>
+        <v>-0.03899253731343283</v>
       </c>
       <c r="X11">
-        <v>0.05968687854452819</v>
+        <v>0.05758131931435843</v>
       </c>
       <c r="Y11">
-        <v>-0.06722648711861952</v>
+        <v>-0.09657385662779126</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.01300758213984836</v>
       </c>
       <c r="AA11">
-        <v>-0.01430722891566265</v>
+        <v>-0.01592249368155012</v>
       </c>
       <c r="AB11">
-        <v>0.05968687854452819</v>
+        <v>0.04995039632496966</v>
       </c>
       <c r="AC11">
-        <v>-0.07399410746019083</v>
+        <v>-0.06587289000651977</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG11">
-        <v>-0.388</v>
+        <v>25.999</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.2705515088449532</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.3303684879288437</v>
       </c>
       <c r="AJ11">
-        <v>-0.003938606464187104</v>
+        <v>0.2705439182509703</v>
       </c>
       <c r="AK11">
-        <v>-0.003751982361814877</v>
+        <v>0.3303599791611075</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.896</v>
       </c>
       <c r="AM11">
-        <v>-0.259</v>
+        <v>0.896</v>
       </c>
       <c r="AN11">
-        <v>-0</v>
+        <v>-27.89699570815451</v>
+      </c>
+      <c r="AO11">
+        <v>-1.0546875</v>
       </c>
       <c r="AP11">
-        <v>0.2120218579234973</v>
+        <v>-27.89592274678111</v>
       </c>
       <c r="AQ11">
-        <v>5.868725868725869</v>
+        <v>-1.0546875</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1862,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LVenture Group S.p.A. (BIT:LVEN)</t>
+          <t>Digital Magics S.p.A. (BIT:DM)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1859,34 +1871,34 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.57</v>
+        <v>0.0287</v>
       </c>
       <c r="G12">
-        <v>-0.2281733746130031</v>
+        <v>0.09567901234567902</v>
       </c>
       <c r="H12">
-        <v>-0.2281733746130031</v>
+        <v>-0.3271604938271605</v>
       </c>
       <c r="I12">
-        <v>-0.3312693498452012</v>
+        <v>-0.2169753086419753</v>
       </c>
       <c r="J12">
-        <v>-0.3240678422398708</v>
+        <v>-0.2169753086419753</v>
       </c>
       <c r="K12">
-        <v>0.405</v>
+        <v>-2.15</v>
       </c>
       <c r="L12">
-        <v>0.1253869969040248</v>
+        <v>-0.6635802469135802</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>0.035</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.001017441860465116</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>-0.01627906976744186</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1895,79 +1907,82 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.035</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.383</v>
+        <v>3.27</v>
       </c>
       <c r="V12">
-        <v>0.01227564102564103</v>
+        <v>0.09505813953488372</v>
       </c>
       <c r="W12">
-        <v>0.02484662576687117</v>
+        <v>-0.1018957345971564</v>
       </c>
       <c r="X12">
-        <v>0.06279346787900256</v>
+        <v>0.05157431614972867</v>
       </c>
       <c r="Y12">
-        <v>-0.03794684211213139</v>
+        <v>-0.1534700507468851</v>
       </c>
       <c r="Z12">
-        <v>0.1878999418266434</v>
+        <v>0.1512816921137415</v>
       </c>
       <c r="AA12">
-        <v>-0.06089232870475757</v>
+        <v>-0.03282439183825932</v>
       </c>
       <c r="AB12">
-        <v>0.06028318992180722</v>
+        <v>0.04849526596081128</v>
       </c>
       <c r="AC12">
-        <v>-0.1211755186265648</v>
+        <v>-0.0813196577990706</v>
       </c>
       <c r="AD12">
-        <v>3.15</v>
+        <v>5.54</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>3.15</v>
+        <v>5.54</v>
       </c>
       <c r="AG12">
-        <v>2.767</v>
+        <v>2.27</v>
       </c>
       <c r="AH12">
-        <v>0.09170305676855894</v>
+        <v>0.1387080620931397</v>
       </c>
       <c r="AI12">
-        <v>0.1510791366906475</v>
+        <v>0.2285478547854786</v>
       </c>
       <c r="AJ12">
-        <v>0.08146141843554038</v>
+        <v>0.06190346332151622</v>
       </c>
       <c r="AK12">
-        <v>0.1351932378951483</v>
+        <v>0.1082498807820696</v>
       </c>
       <c r="AL12">
-        <v>0.114</v>
+        <v>0.126</v>
       </c>
       <c r="AM12">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="AN12">
-        <v>-5.147058823529412</v>
+        <v>-6.338672768878719</v>
       </c>
       <c r="AO12">
-        <v>-9.385964912280702</v>
+        <v>-5.579365079365079</v>
       </c>
       <c r="AP12">
-        <v>-4.521241830065359</v>
+        <v>-2.597254004576659</v>
       </c>
       <c r="AQ12">
-        <v>-9.385964912280702</v>
+        <v>-6.060344827586206</v>
       </c>
     </row>
     <row r="13">
@@ -1978,7 +1993,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Digital Magics S.p.A. (BIT:DM)</t>
+          <t>LVenture Group S.p.A. (BIT:LVEN)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1987,118 +2002,115 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0694</v>
+        <v>0.319</v>
       </c>
       <c r="G13">
-        <v>-0.009259259259259198</v>
+        <v>-0.3460317460317461</v>
       </c>
       <c r="H13">
-        <v>-0.4290123456790123</v>
+        <v>-0.3460317460317461</v>
       </c>
       <c r="I13">
-        <v>-0.5030864197530863</v>
+        <v>-0.3587301587301587</v>
       </c>
       <c r="J13">
-        <v>-0.497769786519236</v>
+        <v>-0.3373194623194623</v>
       </c>
       <c r="K13">
-        <v>0.749</v>
+        <v>0.835</v>
       </c>
       <c r="L13">
-        <v>0.2311728395061728</v>
+        <v>0.2650793650793651</v>
       </c>
       <c r="M13">
-        <v>0.502</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.01010060362173038</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.6702269692923899</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>0.421</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.008470824949698188</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.562082777036048</v>
+        <v>-0</v>
       </c>
       <c r="S13">
-        <v>0.08100000000000002</v>
-      </c>
-      <c r="T13">
-        <v>0.1613545816733068</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>4.67</v>
+        <v>3.17</v>
       </c>
       <c r="V13">
-        <v>0.09396378269617706</v>
+        <v>0.1016025641025641</v>
       </c>
       <c r="W13">
-        <v>0.035</v>
+        <v>0.04717514124293785</v>
       </c>
       <c r="X13">
-        <v>0.06278864592372628</v>
+        <v>0.04929473448762557</v>
       </c>
       <c r="Y13">
-        <v>-0.02778864592372628</v>
+        <v>-0.002119593244687717</v>
       </c>
       <c r="Z13">
-        <v>0.1637935392548405</v>
+        <v>0.1539062881712024</v>
       </c>
       <c r="AA13">
-        <v>-0.08153147506811208</v>
+        <v>-0.05191558637349422</v>
       </c>
       <c r="AB13">
-        <v>0.06028234910361329</v>
+        <v>0.04779524010272016</v>
       </c>
       <c r="AC13">
-        <v>-0.1418138241717254</v>
+        <v>-0.09971082647621438</v>
       </c>
       <c r="AD13">
-        <v>5.01</v>
+        <v>2.54</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>5.01</v>
+        <v>2.54</v>
       </c>
       <c r="AG13">
-        <v>0.3399999999999999</v>
+        <v>-0.6299999999999999</v>
       </c>
       <c r="AH13">
-        <v>0.09157375251325169</v>
+        <v>0.07528156490812092</v>
       </c>
       <c r="AI13">
-        <v>0.1918805055534278</v>
+        <v>0.08868715083798882</v>
       </c>
       <c r="AJ13">
-        <v>0.006794564348521179</v>
+        <v>-0.02060843964671246</v>
       </c>
       <c r="AK13">
-        <v>0.01585820895522387</v>
+        <v>-0.02473498233215547</v>
       </c>
       <c r="AL13">
-        <v>0.056</v>
+        <v>0.107</v>
       </c>
       <c r="AM13">
-        <v>0.045</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AN13">
-        <v>-2.767955801104972</v>
+        <v>-2.899543378995434</v>
       </c>
       <c r="AO13">
-        <v>-29.10714285714285</v>
+        <v>-10.5607476635514</v>
       </c>
       <c r="AP13">
-        <v>-0.1878453038674032</v>
+        <v>0.7191780821917807</v>
       </c>
       <c r="AQ13">
-        <v>-36.22222222222222</v>
+        <v>-13.13953488372093</v>
       </c>
     </row>
     <row r="14">
@@ -2118,22 +2130,22 @@
         </is>
       </c>
       <c r="G14">
-        <v>-0.1921515561569689</v>
+        <v>0.03513513513513514</v>
       </c>
       <c r="H14">
-        <v>-0.1921515561569689</v>
+        <v>0.03513513513513514</v>
       </c>
       <c r="I14">
-        <v>-0.1044654939106901</v>
+        <v>-0.0766891891891892</v>
       </c>
       <c r="J14">
-        <v>-0.1044654939106901</v>
+        <v>-0.0766891891891892</v>
       </c>
       <c r="K14">
-        <v>-0.707</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L14">
-        <v>-0.09566982408660352</v>
+        <v>-0.0945945945945946</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2160,70 +2172,70 @@
         <v>0.001</v>
       </c>
       <c r="V14">
-        <v>0.0001122334455667789</v>
+        <v>0.0001</v>
       </c>
       <c r="W14">
-        <v>-0.1808184143222506</v>
+        <v>-0.1435897435897436</v>
       </c>
       <c r="X14">
-        <v>0.05968687854452819</v>
+        <v>0.04870190499556516</v>
       </c>
       <c r="Y14">
-        <v>-0.2405052928667788</v>
+        <v>-0.1922916485853088</v>
       </c>
       <c r="Z14">
-        <v>1.89002557544757</v>
+        <v>1.518338035393691</v>
       </c>
       <c r="AA14">
-        <v>-0.1974424552429667</v>
+        <v>-0.1164401128494486</v>
       </c>
       <c r="AB14">
-        <v>0.05968687854452819</v>
+        <v>0.04806481245477598</v>
       </c>
       <c r="AC14">
-        <v>-0.2571293337874949</v>
+        <v>-0.1645049253042246</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.607</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.607</v>
       </c>
       <c r="AG14">
-        <v>-0.001</v>
+        <v>0.606</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.05722635995097577</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>0.1565643538818674</v>
       </c>
       <c r="AJ14">
-        <v>-0.0001122460433269727</v>
+        <v>0.05713746935696775</v>
       </c>
       <c r="AK14">
-        <v>-0.0002564760194921775</v>
+        <v>0.1563467492260062</v>
       </c>
       <c r="AL14">
-        <v>0.002</v>
+        <v>0.048</v>
       </c>
       <c r="AM14">
-        <v>0.002</v>
+        <v>0.048</v>
       </c>
       <c r="AN14">
-        <v>-0</v>
+        <v>-2.030100334448161</v>
       </c>
       <c r="AO14">
-        <v>-386</v>
+        <v>-9.458333333333334</v>
       </c>
       <c r="AP14">
-        <v>0.00135685210312076</v>
+        <v>-2.026755852842809</v>
       </c>
       <c r="AQ14">
-        <v>-386</v>
+        <v>-9.458333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -2234,7 +2246,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>H-Farm S.p.A. (BIT:FARM)</t>
+          <t>Copernico Sim S.p.A. (BIT:COP)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2243,115 +2255,112 @@
         </is>
       </c>
       <c r="G15">
-        <v>-0.08280757097791798</v>
+        <v>0.03244325767690254</v>
       </c>
       <c r="H15">
-        <v>-0.1146687697160883</v>
+        <v>-0.002136181575433912</v>
       </c>
       <c r="I15">
-        <v>-0.1971608832807571</v>
+        <v>-0.05834445927903872</v>
       </c>
       <c r="J15">
-        <v>-0.1971608832807571</v>
+        <v>-0.05834445927903872</v>
       </c>
       <c r="K15">
-        <v>-10.3</v>
+        <v>-0.077</v>
       </c>
       <c r="L15">
-        <v>-0.1624605678233439</v>
+        <v>-0.0102803738317757</v>
       </c>
       <c r="M15">
+        <v>-0</v>
+      </c>
+      <c r="N15">
+        <v>-0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>-0</v>
+      </c>
+      <c r="Q15">
+        <v>-0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>0.001</v>
       </c>
-      <c r="N15">
-        <v>2.941176470588235e-05</v>
-      </c>
-      <c r="O15">
-        <v>-9.708737864077669e-05</v>
-      </c>
-      <c r="P15">
-        <v>0.001</v>
-      </c>
-      <c r="Q15">
-        <v>2.941176470588235e-05</v>
-      </c>
-      <c r="R15">
-        <v>-9.708737864077669e-05</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>4.32</v>
-      </c>
       <c r="V15">
-        <v>0.1270588235294118</v>
+        <v>7.518796992481203e-05</v>
       </c>
       <c r="W15">
-        <v>-0.356401384083045</v>
+        <v>-0.03031496062992126</v>
       </c>
       <c r="X15">
-        <v>0.07000388783011031</v>
+        <v>0.048154566339071</v>
       </c>
       <c r="Y15">
-        <v>-0.4264052719131553</v>
+        <v>-0.07846952696899226</v>
       </c>
       <c r="Z15">
-        <v>3.662622761409591</v>
+        <v>2.551959114139693</v>
       </c>
       <c r="AA15">
-        <v>-0.7221259387637206</v>
+        <v>-0.1488926746166951</v>
       </c>
       <c r="AB15">
-        <v>0.06246472045928031</v>
+        <v>0.04740495204996033</v>
       </c>
       <c r="AC15">
-        <v>-0.7845906592230009</v>
+        <v>-0.1962976266666554</v>
       </c>
       <c r="AD15">
-        <v>11.4</v>
+        <v>0.553</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>11.4</v>
+        <v>0.553</v>
       </c>
       <c r="AG15">
-        <v>7.08</v>
+        <v>0.552</v>
       </c>
       <c r="AH15">
-        <v>0.2511013215859031</v>
+        <v>0.03991915108640728</v>
       </c>
       <c r="AI15">
-        <v>0.3812709030100335</v>
+        <v>0.09529553679131485</v>
       </c>
       <c r="AJ15">
-        <v>0.1723466407010711</v>
+        <v>0.03984984117816922</v>
       </c>
       <c r="AK15">
-        <v>0.2767787333854574</v>
+        <v>0.09513960703205793</v>
       </c>
       <c r="AL15">
-        <v>0.298</v>
+        <v>0.023</v>
       </c>
       <c r="AM15">
-        <v>-2.862</v>
+        <v>-0.03</v>
       </c>
       <c r="AN15">
-        <v>-1.106796116504854</v>
+        <v>-3.894366197183099</v>
       </c>
       <c r="AO15">
-        <v>-41.94630872483221</v>
+        <v>-19</v>
       </c>
       <c r="AP15">
-        <v>-0.687378640776699</v>
+        <v>-3.887323943661972</v>
       </c>
       <c r="AQ15">
-        <v>4.367575122292103</v>
+        <v>14.56666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -2362,7 +2371,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VEI 1 S.p.A. (BIT:VEI1)</t>
+          <t>Capital For Progress Single Investment S.p.A. (BIT:CFP)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2371,22 +2380,22 @@
         </is>
       </c>
       <c r="G16">
-        <v>-83.45454545454547</v>
+        <v>-4.75</v>
       </c>
       <c r="H16">
-        <v>-83.45454545454547</v>
+        <v>-4.75</v>
       </c>
       <c r="I16">
-        <v>-95.45454545454547</v>
+        <v>-3.288461538461539</v>
       </c>
       <c r="J16">
-        <v>-95.45454545454547</v>
+        <v>-3.288461538461539</v>
       </c>
       <c r="K16">
-        <v>-1.05</v>
+        <v>-1.83</v>
       </c>
       <c r="L16">
-        <v>-95.45454545454547</v>
+        <v>-35.19230769230769</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2410,70 +2419,67 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>116.1</v>
+        <v>0.532</v>
       </c>
       <c r="V16">
-        <v>1.068077276908924</v>
+        <v>0.143010752688172</v>
       </c>
       <c r="W16">
-        <v>-0.008720930232558139</v>
+        <v>-0.3674698795180723</v>
       </c>
       <c r="X16">
-        <v>0.05968687854452819</v>
+        <v>0.04853412601224784</v>
       </c>
       <c r="Y16">
-        <v>-0.06840780877708633</v>
+        <v>-0.4160040055303201</v>
       </c>
       <c r="Z16">
-        <v>0.01222222222222214</v>
+        <v>0.09923664122137403</v>
       </c>
       <c r="AA16">
-        <v>-1.166666666666659</v>
+        <v>-0.3263358778625954</v>
       </c>
       <c r="AB16">
-        <v>0.05968687854452819</v>
+        <v>0.04753815101245584</v>
       </c>
       <c r="AC16">
-        <v>-1.226353545211188</v>
+        <v>-0.3738740288750513</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="AG16">
-        <v>-116.1</v>
+        <v>-0.3280000000000001</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.05198776758409785</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.06064209274673008</v>
       </c>
       <c r="AJ16">
-        <v>15.68918918918921</v>
+        <v>-0.09669811320754718</v>
       </c>
       <c r="AK16">
-        <v>-386.9999999999853</v>
+        <v>-0.1158192090395481</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>-0.361</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>-0</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="AP16">
-        <v>110.5714285714286</v>
-      </c>
-      <c r="AQ16">
-        <v>2.908587257617729</v>
+        <v>2.277777777777779</v>
       </c>
     </row>
     <row r="17">
@@ -2484,7 +2490,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Life Care Capital S.p.A. (BIT:LCC)</t>
+          <t>H-Farm S.p.A. (BIT:FARM)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2492,8 +2498,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G17">
+        <v>-0.1486088379705401</v>
+      </c>
+      <c r="H17">
+        <v>-0.1653027823240589</v>
+      </c>
+      <c r="I17">
+        <v>-0.204582651391162</v>
+      </c>
+      <c r="J17">
+        <v>-0.204582651391162</v>
+      </c>
       <c r="K17">
-        <v>-0.201</v>
+        <v>-15.1</v>
+      </c>
+      <c r="L17">
+        <v>-0.2471358428805237</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2517,349 +2538,73 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>161.3</v>
+        <v>6.88</v>
       </c>
       <c r="V17">
-        <v>1.026081424936387</v>
+        <v>0.1707196029776675</v>
+      </c>
+      <c r="W17">
+        <v>-0.8162162162162162</v>
       </c>
       <c r="X17">
-        <v>0.05968687854452819</v>
+        <v>0.05283851887835443</v>
+      </c>
+      <c r="Y17">
+        <v>-0.8690547350945707</v>
+      </c>
+      <c r="Z17">
+        <v>4.856915739268681</v>
+      </c>
+      <c r="AA17">
+        <v>-0.9936406995230526</v>
       </c>
       <c r="AB17">
-        <v>0.05968687854452819</v>
+        <v>0.04969767862931009</v>
+      </c>
+      <c r="AC17">
+        <v>-1.043338378152363</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>8.27</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>8.27</v>
       </c>
       <c r="AG17">
-        <v>-161.3</v>
+        <v>1.39</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>0.1702697138151122</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>0.4000967585873246</v>
       </c>
       <c r="AJ17">
-        <v>39.34146341463393</v>
+        <v>0.03334132885584072</v>
       </c>
       <c r="AK17">
-        <v>-179.2222222222268</v>
+        <v>0.1007976794778825</v>
       </c>
       <c r="AL17">
-        <v>0.121</v>
+        <v>0.864</v>
       </c>
       <c r="AM17">
-        <v>0.121</v>
+        <v>0.864</v>
       </c>
       <c r="AN17">
-        <v>-0</v>
+        <v>-0.7876190476190476</v>
       </c>
       <c r="AO17">
-        <v>-9.834710743801653</v>
+        <v>-14.46759259259259</v>
       </c>
       <c r="AP17">
-        <v>771.7703349282298</v>
+        <v>-0.1323809523809523</v>
       </c>
       <c r="AQ17">
-        <v>-9.834710743801653</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gabelli Value for Italy S.p.A. (BIT:VALU)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K18">
-        <v>-0.292</v>
-      </c>
-      <c r="M18">
-        <v>-0</v>
-      </c>
-      <c r="N18">
-        <v>-0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>-0</v>
-      </c>
-      <c r="Q18">
-        <v>-0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>45.1</v>
-      </c>
-      <c r="V18">
-        <v>0.3663688058489034</v>
-      </c>
-      <c r="X18">
-        <v>0.05968687854452819</v>
-      </c>
-      <c r="AB18">
-        <v>0.05968687854452819</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>-45.1</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.5782051282051283</v>
-      </c>
-      <c r="AK18">
-        <v>-0.5375446960667462</v>
-      </c>
-      <c r="AL18">
-        <v>0.332</v>
-      </c>
-      <c r="AM18">
-        <v>-1.818</v>
-      </c>
-      <c r="AN18">
-        <v>-0</v>
-      </c>
-      <c r="AO18">
-        <v>-4.849397590361446</v>
-      </c>
-      <c r="AP18">
-        <v>82.44972577696527</v>
-      </c>
-      <c r="AQ18">
-        <v>0.8855885588558857</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TheSpac S.p.A. (BIT:TSPA)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K19">
-        <v>-0.441</v>
-      </c>
-      <c r="M19">
-        <v>-0</v>
-      </c>
-      <c r="N19">
-        <v>-0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>-0</v>
-      </c>
-      <c r="Q19">
-        <v>-0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>69.3</v>
-      </c>
-      <c r="V19">
-        <v>1.038980509745127</v>
-      </c>
-      <c r="X19">
-        <v>0.05968687854452819</v>
-      </c>
-      <c r="AB19">
-        <v>0.05968687854452819</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>-69.3</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>26.65384615384621</v>
-      </c>
-      <c r="AK19">
-        <v>-115.4999999999984</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Copernico Sim S.p.A. (BIT:COP)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>0.03270524899057874</v>
-      </c>
-      <c r="H20">
-        <v>0.006191117092866756</v>
-      </c>
-      <c r="I20">
-        <v>-0.007671601615074025</v>
-      </c>
-      <c r="J20">
-        <v>-0.007671601615074025</v>
-      </c>
-      <c r="K20">
-        <v>0.068</v>
-      </c>
-      <c r="L20">
-        <v>0.009152086137281292</v>
-      </c>
-      <c r="M20">
-        <v>0.041</v>
-      </c>
-      <c r="N20">
-        <v>0.002827586206896552</v>
-      </c>
-      <c r="O20">
-        <v>0.6029411764705882</v>
-      </c>
-      <c r="P20">
-        <v>-0</v>
-      </c>
-      <c r="Q20">
-        <v>-0</v>
-      </c>
-      <c r="R20">
-        <v>-0</v>
-      </c>
-      <c r="S20">
-        <v>0.041</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.003</v>
-      </c>
-      <c r="V20">
-        <v>0.0002068965517241379</v>
-      </c>
-      <c r="X20">
-        <v>0.06053146275295225</v>
-      </c>
-      <c r="AB20">
-        <v>0.06005956965534513</v>
-      </c>
-      <c r="AD20">
-        <v>0.398</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0.398</v>
-      </c>
-      <c r="AG20">
-        <v>0.395</v>
-      </c>
-      <c r="AH20">
-        <v>0.02671499530138274</v>
-      </c>
-      <c r="AI20">
-        <v>0.1354663036078965</v>
-      </c>
-      <c r="AJ20">
-        <v>0.02651896609600537</v>
-      </c>
-      <c r="AK20">
-        <v>0.1345826235093697</v>
-      </c>
-      <c r="AL20">
-        <v>0.015</v>
-      </c>
-      <c r="AM20">
-        <v>0.015</v>
-      </c>
-      <c r="AN20">
-        <v>2.45679012345679</v>
-      </c>
-      <c r="AO20">
-        <v>-3.8</v>
-      </c>
-      <c r="AP20">
-        <v>2.438271604938272</v>
-      </c>
-      <c r="AQ20">
-        <v>-3.8</v>
+        <v>-14.46759259259259</v>
       </c>
     </row>
   </sheetData>
